--- a/Comparativa_Salarios_Programadores_2025.xlsx
+++ b/Comparativa_Salarios_Programadores_2025.xlsx
@@ -8,18 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAVIER\Desktop\Comparativa Salarios Programadores 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9B5DA3-6E59-4321-9854-928592EAF8DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645F2D3D-4442-4C81-AA37-6D0D7E9A506D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="29692" windowHeight="12549" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="29692" windowHeight="12549" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Base" sheetId="1" r:id="rId1"/>
-    <sheet name="Dashboard" sheetId="2" r:id="rId2"/>
+    <sheet name="Dashboard" sheetId="2" r:id="rId1"/>
+    <sheet name="Base" sheetId="1" r:id="rId2"/>
     <sheet name="Resumen" sheetId="3" r:id="rId3"/>
     <sheet name="Por País" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="Slicer_Nivel">#N/A</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
+  <pivotCaches>
+    <pivotCache cacheId="0" r:id="rId5"/>
+  </pivotCaches>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
+      <x15:slicerCaches xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <x14:slicerCache r:id="rId6"/>
+      </x15:slicerCaches>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -35,31 +49,71 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="4">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="3"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="4">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+    <bk>
+      <rc t="1" v="1"/>
+    </bk>
+    <bk>
+      <rc t="1" v="2"/>
+    </bk>
+    <bk>
+      <rc t="1" v="3"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>Nivel</t>
-  </si>
-  <si>
-    <t>Bruto anual Asalariado (€)</t>
   </si>
   <si>
     <t>IRPF Estimado Asalariado (%)</t>
   </si>
   <si>
-    <t>Neto mensual Asalariado (€)</t>
-  </si>
-  <si>
     <t>Remoto Internacional (USD)</t>
   </si>
   <si>
-    <t>Bruto anual Autónomo (€)</t>
-  </si>
-  <si>
     <t>IRPF + Cuota Autónomo (%)</t>
-  </si>
-  <si>
-    <t>Neto mensual Autónomo (€)</t>
   </si>
   <si>
     <t>Junior</t>
@@ -72,12 +126,6 @@
   </si>
   <si>
     <t>Especialista IA / Lead</t>
-  </si>
-  <si>
-    <t>Dashboard Comparativo - Salarios Programadores 2025</t>
-  </si>
-  <si>
-    <t>Comparativa Neto mensual (€)</t>
   </si>
   <si>
     <t>Informe de Comparativa Salarial</t>
@@ -124,19 +172,48 @@
   <si>
     <t>Salario neto mensual estimado (€):</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nivel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neto mensual Autónomo (€) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remoto Internacional (USD) </t>
+  </si>
+  <si>
+    <t>Bruto Anual Asalariado (€)</t>
+  </si>
+  <si>
+    <t>Neto Mensual Asalariado (€)</t>
+  </si>
+  <si>
+    <t>Bruto Anual Autónomo (€)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neto Mensual Asalariado (€) </t>
+  </si>
+  <si>
+    <t>Neto Mensual Autónomo (€)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="7">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="\€#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;XDR&quot;* #,##0.00_-;\-&quot;XDR&quot;* #,##0.00_-;_-&quot;XDR&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="\€#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,23 +237,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="14"/>
+      <color rgb="FF7030A0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -184,58 +286,361 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="33">
     <dxf>
-      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="\€#,##0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="\€#,##0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-&quot;XDR&quot;* #,##0.00_-;\-&quot;XDR&quot;* #,##0.00_-;_-&quot;XDR&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-&quot;XDR&quot;* #,##0.00_-;\-&quot;XDR&quot;* #,##0.00_-;_-&quot;XDR&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-&quot;XDR&quot;* #,##0.00_-;\-&quot;XDR&quot;* #,##0.00_-;_-&quot;XDR&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF77933C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF77933C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Segoe UI Semibold"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+        <name val="Segoe UI Semibold"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="0.5">
+            <color theme="4"/>
+          </stop>
+          <stop position="1">
+            <color theme="0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="10" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Slicer Style 1" pivot="0" table="0" count="1" xr9:uid="{00C01CE2-9544-4A98-B8EF-098027B69706}">
+      <tableStyleElement type="wholeTable" dxfId="32"/>
+    </tableStyle>
+    <tableStyle name="Slicer Style 10" pivot="0" table="0" count="1" xr9:uid="{5E41101F-BFE1-4B24-9BE5-372E1EDCC264}"/>
+    <tableStyle name="Slicer Style 2" pivot="0" table="0" count="1" xr9:uid="{68D14068-CE65-4171-BD76-79BFDAB7A072}">
+      <tableStyleElement type="wholeTable" dxfId="31"/>
+    </tableStyle>
+    <tableStyle name="Slicer Style 3" pivot="0" table="0" count="1" xr9:uid="{A9AB7B23-CEB1-436D-B73E-C2EC72D03095}">
+      <tableStyleElement type="wholeTable" dxfId="30"/>
+    </tableStyle>
+    <tableStyle name="Slicer Style 4" pivot="0" table="0" count="1" xr9:uid="{9AEA1BDC-A2CA-4A86-A144-B96DE845E660}">
+      <tableStyleElement type="wholeTable" dxfId="29"/>
+    </tableStyle>
+    <tableStyle name="Slicer Style 5" pivot="0" table="0" count="1" xr9:uid="{DA356A67-47E5-44CE-B49D-13783DC0DDFD}">
+      <tableStyleElement type="wholeTable" dxfId="28"/>
+    </tableStyle>
+    <tableStyle name="Slicer Style 6" pivot="0" table="0" count="1" xr9:uid="{111DC819-032E-4586-A00C-31F13B4CD901}">
+      <tableStyleElement type="wholeTable" dxfId="27"/>
+    </tableStyle>
+    <tableStyle name="Slicer Style 7" pivot="0" table="0" count="0" xr9:uid="{A60B67FF-5F72-486A-8C01-88D5FFE3A543}"/>
+    <tableStyle name="Slicer Style 8" pivot="0" table="0" count="1" xr9:uid="{7249E5EC-2839-4E46-B854-655F56EA8AA1}">
+      <tableStyleElement type="wholeTable" dxfId="26"/>
+    </tableStyle>
+    <tableStyle name="Slicer Style 9" pivot="0" table="0" count="1" xr9:uid="{0D60B393-1042-467E-B1D0-B1E2FBC94033}">
+      <tableStyleElement type="wholeTable" dxfId="25"/>
+    </tableStyle>
+  </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="FF77933C"/>
+    </mruColors>
+  </colors>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{46F421CA-312F-682f-3DD2-61675219B42D}">
+      <x14:dxfs count="1">
+        <dxf>
+          <border diagonalUp="0" diagonalDown="0">
+            <left/>
+            <right/>
+            <top/>
+            <bottom/>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+      </x14:dxfs>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+      <x14:slicerStyles defaultSlicerStyle="Slicer Style 3">
+        <x14:slicerStyle name="Slicer Style 1"/>
+        <x14:slicerStyle name="Slicer Style 10">
+          <x14:slicerStyleElements>
+            <x14:slicerStyleElement type="selectedItemWithData" dxfId="0"/>
+          </x14:slicerStyleElements>
+        </x14:slicerStyle>
+        <x14:slicerStyle name="Slicer Style 2"/>
+        <x14:slicerStyle name="Slicer Style 3"/>
+        <x14:slicerStyle name="Slicer Style 4"/>
+        <x14:slicerStyle name="Slicer Style 5"/>
+        <x14:slicerStyle name="Slicer Style 6"/>
+        <x14:slicerStyle name="Slicer Style 7"/>
+        <x14:slicerStyle name="Slicer Style 8"/>
+        <x14:slicerStyle name="Slicer Style 9"/>
+      </x14:slicerStyles>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
@@ -251,45 +656,99 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="111"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="11"/>
+      <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Neto mensual Asalariado vs Autónomo</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
-        <c:barDir val="col"/>
+        <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Asalariado</c:v>
+            <c:strRef>
+              <c:f>Base!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Neto Mensual Asalariado (€)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7030A0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Base!$A$2:$A$5</c:f>
@@ -314,7 +773,7 @@
             <c:numRef>
               <c:f>Base!$D$2:$D$5</c:f>
               <c:numCache>
-                <c:formatCode>_("€"* #,##0.00_);_("€"* \(#,##0.00\);_("€"* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_-"XDR"* #,##0.00_-;\-"XDR"* #,##0.00_-;_-"XDR"* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1770.833333333333</c:v>
@@ -333,7 +792,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1DDA-BD49-9BC2-D83BA2385366}"/>
+              <c16:uniqueId val="{00000000-8708-4E7B-9BF4-67C094A83CF0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -341,9 +800,83 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Autónomo</c:v>
+            <c:strRef>
+              <c:f>Base!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Neto Mensual Autónomo (€)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inBase"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Base!$A$2:$A$5</c:f>
@@ -368,7 +901,7 @@
             <c:numRef>
               <c:f>Base!$H$2:$H$5</c:f>
               <c:numCache>
-                <c:formatCode>_("€"* #,##0.00_);_("€"* \(#,##0.00\);_("€"* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_-"XDR"* #,##0.00_-;\-"XDR"* #,##0.00_-;_-"XDR"* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1687.5</c:v>
@@ -387,7 +920,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1DDA-BD49-9BC2-D83BA2385366}"/>
+              <c16:uniqueId val="{00000001-8708-4E7B-9BF4-67C094A83CF0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -399,40 +932,55 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="50010001"/>
-        <c:axId val="50010002"/>
+        <c:gapWidth val="182"/>
+        <c:axId val="1084783536"/>
+        <c:axId val="1084784016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="50010001"/>
+        <c:axId val="1084783536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Nivel</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50010002"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1084784016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -440,48 +988,81 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50010002"/>
+        <c:axId val="1084784016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>€</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="_(&quot;€&quot;* #,##0.00_);_(&quot;€&quot;* \(#,##0.00\);_(&quot;€&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="_-&quot;XDR&quot;* #,##0.00_-;\-&quot;XDR&quot;* #,##0.00_-;_-&quot;XDR&quot;* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50010001"/>
+        <c:crossAx val="1084783536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -490,31 +1071,578 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2155E3C8-DD41-42CC-B81E-8F1E9C2419FA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -528,23 +1656,708 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>120651</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="Nivel">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{685BBDC0-E66B-43BC-8122-45CA3BFC096A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Nivel"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="577850" y="1409701"/>
+              <a:ext cx="4324350" cy="374649"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This shape represents a table slicer. Table slicers are not supported in this version of Excel.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2007 or earlier, the slicer can't be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD0E2033-70AD-827D-F9C1-7F818606F0FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5975350"/>
+          <a:ext cx="13976350" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B687DA00-6179-A4FC-121F-EC4CEECEA8F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1416050" y="196850"/>
+          <a:ext cx="10191750" cy="844550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1">
+              <a:latin typeface="Segoe UI Semibold" panose="020B0702040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI Semibold" panose="020B0702040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>PROGRAMADORES SALARIO NETO A</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Segoe UI Semibold" panose="020B0702040204020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Segoe UI Semibold" panose="020B0702040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>ÑO</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Segoe UI Semibold" panose="020B0702040204020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Segoe UI Semibold" panose="020B0702040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> 2025</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Segoe UI Semibold" panose="020B0702040204020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Segoe UI Semibold" panose="020B0702040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>ASALARIADOS VS AUTÓNOMOS</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2000" b="1">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Segoe UI Semibold" panose="020B0702040204020203" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Segoe UI Semibold" panose="020B0702040204020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Susana Uztáriz" refreshedDate="45877.545654513888" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="4" xr:uid="{3C482B17-8D6B-436A-85C1-2A27CA8C521D}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Tabla1"/>
+  </cacheSource>
+  <cacheFields count="8">
+    <cacheField name="Nivel" numFmtId="0">
+      <sharedItems count="4">
+        <s v="Junior"/>
+        <s v="SemiSenior"/>
+        <s v="Senior"/>
+        <s v="Especialista IA / Lead"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Bruto Anual Asalariado (€)" numFmtId="44">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="25000" maxValue="77500"/>
+    </cacheField>
+    <cacheField name="IRPF Estimado Asalariado (%)" numFmtId="9">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.15" maxValue="0.25"/>
+    </cacheField>
+    <cacheField name="Neto Mensual Asalariado (€)" numFmtId="44">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1770.833333333333" maxValue="4843.75"/>
+    </cacheField>
+    <cacheField name="Remoto Internacional (USD)" numFmtId="167">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="30000" maxValue="125000"/>
+    </cacheField>
+    <cacheField name="Bruto Anual Autónomo (€)" numFmtId="44">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="30000" maxValue="80000"/>
+    </cacheField>
+    <cacheField name="IRPF + Cuota Autónomo (%)" numFmtId="9">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.32" maxValue="0.36"/>
+    </cacheField>
+    <cacheField name="Neto Mensual Autónomo (€)" numFmtId="44">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1687.5" maxValue="4233.333333333333" count="4">
+        <n v="1687.5"/>
+        <n v="2531.25"/>
+        <n v="3375"/>
+        <n v="4233.333333333333"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="4">
+  <r>
+    <x v="0"/>
+    <n v="25000"/>
+    <n v="0.15"/>
+    <n v="1770.833333333333"/>
+    <n v="30000"/>
+    <n v="30000"/>
+    <n v="0.32"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="37500"/>
+    <n v="0.18"/>
+    <n v="2562.5"/>
+    <n v="47500"/>
+    <n v="45000"/>
+    <n v="0.32"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="55000"/>
+    <n v="0.22"/>
+    <n v="3575"/>
+    <n v="80000"/>
+    <n v="60000"/>
+    <n v="0.32"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="77500"/>
+    <n v="0.25"/>
+    <n v="4843.75"/>
+    <n v="125000"/>
+    <n v="80000"/>
+    <n v="0.36"/>
+    <x v="3"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3EF5E786-7783-48FC-B6B8-9862912B273F}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Nivel ">
+  <location ref="K14:N18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="9" showAll="0"/>
+    <pivotField dataField="1" numFmtId="44" showAll="0"/>
+    <pivotField dataField="1" numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="9" showAll="0"/>
+    <pivotField dataField="1" numFmtId="44" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="Neto Mensual Asalariado (€) " fld="3" baseField="0" baseItem="0" numFmtId="44"/>
+    <dataField name="Neto mensual Autónomo (€) " fld="7" baseField="0" baseItem="0" numFmtId="44"/>
+    <dataField name="Remoto Internacional (USD) " fld="4" baseField="0" baseItem="0" numFmtId="167"/>
+  </dataFields>
+  <formats count="15">
+    <format dxfId="24">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="23">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="3">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="22">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="21">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="3">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="20">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="19">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="18">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="17">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="16">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="3">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="15">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="14">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="3">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="13">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="12">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="3">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="11">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="10">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="3">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight1" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="4">
+  <rv s="0">
+    <v>0</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>1</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>2</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>3</v>
+    <v>5</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+  <rel r:id="rId2"/>
+  <rel r:id="rId3"/>
+  <rel r:id="rId4"/>
+</richValueRels>
+</file>
+
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Nivel" xr10:uid="{E7C7D2A0-C006-4B05-BEA1-2356CB96E903}" sourceName="Nivel">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="1" column="1" sortOrder="descending" crossFilter="none"/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Nivel" xr10:uid="{D6E92B73-D1D4-40D7-915D-D34FB3EBB0C8}" cache="Slicer_Nivel" columnCount="4" showCaption="0" style="SlicerStyleDark4" rowHeight="241300"/>
+</slicers>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BA057F39-C0D6-48F8-AE63-22A30CCA6EF5}" name="Tabla1" displayName="Tabla1" ref="A1:H5" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BA057F39-C0D6-48F8-AE63-22A30CCA6EF5}" name="Tabla1" displayName="Tabla1" ref="A1:H5" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="A1:H5" xr:uid="{BA057F39-C0D6-48F8-AE63-22A30CCA6EF5}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{439A1BA9-A691-4264-8C02-DD4711D847D6}" name="Nivel"/>
-    <tableColumn id="2" xr3:uid="{3B70CD0F-E19C-45D5-90BA-56A6F99DB97B}" name="Bruto anual Asalariado (€)" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{2B2107FC-D48E-4547-A78E-F5399366B635}" name="IRPF Estimado Asalariado (%)" dataDxfId="4" dataCellStyle="Porcentaje"/>
-    <tableColumn id="4" xr3:uid="{8A1CED9D-D905-4DFF-A86C-0CC5DF3E0AAA}" name="Neto mensual Asalariado (€)" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{6FFFC219-02BA-4F53-B9C4-29E2E4226565}" name="Remoto Internacional (USD)" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{A1F4CE77-D418-4BBD-B9B9-2771EC2E7B71}" name="Bruto anual Autónomo (€)" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{E55B141E-0C44-4675-A76D-F53D2F9389A0}" name="IRPF + Cuota Autónomo (%)" dataCellStyle="Porcentaje"/>
-    <tableColumn id="8" xr3:uid="{BBEAEF77-09B8-4534-A57C-8ECB02171F64}" name="Neto mensual Autónomo (€)" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{3B70CD0F-E19C-45D5-90BA-56A6F99DB97B}" name="Bruto Anual Asalariado (€)" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{2B2107FC-D48E-4547-A78E-F5399366B635}" name="IRPF Estimado Asalariado (%)" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{8A1CED9D-D905-4DFF-A86C-0CC5DF3E0AAA}" name="Neto Mensual Asalariado (€)" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{6FFFC219-02BA-4F53-B9C4-29E2E4226565}" name="Remoto Internacional (USD)" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{A1F4CE77-D418-4BBD-B9B9-2771EC2E7B71}" name="Bruto Anual Autónomo (€)" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{E55B141E-0C44-4675-A76D-F53D2F9389A0}" name="IRPF + Cuota Autónomo (%)"/>
+    <tableColumn id="8" xr3:uid="{BBEAEF77-09B8-4534-A57C-8ECB02171F64}" name="Neto Mensual Autónomo (€)" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BD065CC2-A073-43A8-95E8-321458A2BA8C}" name="Table2" displayName="Table2" ref="B5:D9" totalsRowShown="0">
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{D9D63A22-DAA4-4572-BA1F-40911F19C580}" name="Resumen por nivel:" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{6FD48F42-7A95-4843-A809-E4FD44B43EC4}" name="Asalariado (€)" dataDxfId="1">
+      <calculatedColumnFormula>Base!D2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{F319588F-8379-46A9-A2B7-67131A381FD9}" name="Autónomo (€)" dataDxfId="0">
+      <calculatedColumnFormula>Base!H2</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DA954A98-0E5C-4A01-A62D-ABE0D3AD1796}" name="Table3" displayName="Table3" ref="A3:B7" totalsRowShown="0">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{FB3BD20D-5802-4C30-95A3-3030B66758AF}" name="País o región:"/>
+    <tableColumn id="2" xr3:uid="{698B7D3D-0E00-4E56-86DE-0F39863C83EF}" name="España (Canarias)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -834,157 +2647,821 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.07421875" customWidth="1"/>
-    <col min="2" max="2" width="23.84375" customWidth="1"/>
-    <col min="3" max="3" width="26.3828125" customWidth="1"/>
-    <col min="4" max="4" width="25.765625" customWidth="1"/>
-    <col min="5" max="5" width="25.69140625" customWidth="1"/>
-    <col min="6" max="6" width="24.23046875" customWidth="1"/>
-    <col min="7" max="7" width="25.4609375" customWidth="1"/>
-    <col min="8" max="8" width="26.15234375" customWidth="1"/>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="9" max="9" width="11.07421875" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="11" max="11" width="18.3828125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.3828125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.4609375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.921875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+    </row>
+    <row r="14" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="N14" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="O14" s="12"/>
+    </row>
+    <row r="15" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="13" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" s="15">
+        <v>1770.833333333333</v>
+      </c>
+      <c r="M15" s="15">
+        <v>1687.5</v>
+      </c>
+      <c r="N15" s="16">
+        <v>30000</v>
+      </c>
+      <c r="O15" s="12"/>
+    </row>
+    <row r="16" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="13" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K16" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="L16" s="15">
+        <v>2562.5</v>
+      </c>
+      <c r="M16" s="15">
+        <v>2531.25</v>
+      </c>
+      <c r="N16" s="16">
+        <v>47500</v>
+      </c>
+      <c r="O16" s="12"/>
+    </row>
+    <row r="17" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="13" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="L17" s="15">
+        <v>3575</v>
+      </c>
+      <c r="M17" s="15">
+        <v>3375</v>
+      </c>
+      <c r="N17" s="16">
+        <v>80000</v>
+      </c>
+      <c r="O17" s="12"/>
+    </row>
+    <row r="18" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="13" t="e" vm="4">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="L18" s="15">
+        <v>4843.75</v>
+      </c>
+      <c r="M18" s="15">
+        <v>4233.333333333333</v>
+      </c>
+      <c r="N18" s="16">
+        <v>125000</v>
+      </c>
+      <c r="O18" s="12"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
+      <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <x14:slicer r:id="rId3"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="18.3828125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.61328125" customWidth="1"/>
+    <col min="3" max="3" width="20.07421875" customWidth="1"/>
+    <col min="4" max="4" width="20.4609375" customWidth="1"/>
+    <col min="5" max="5" width="16.23046875" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="15.4609375" customWidth="1"/>
+    <col min="8" max="8" width="18.3828125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
+      <c r="H1" s="20" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="3">
+        <v>4</v>
+      </c>
+      <c r="B2" s="11">
         <v>25000</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>0.15</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="19">
         <v>1770.833333333333</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>30000</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="19">
         <v>30000</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <v>0.32</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="19">
         <v>1687.5</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="3">
+        <v>5</v>
+      </c>
+      <c r="B3" s="11">
         <v>37500</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>0.18</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="19">
         <v>2562.5</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>47500</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="19">
         <v>45000</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>0.32</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="19">
         <v>2531.25</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="3">
+        <v>6</v>
+      </c>
+      <c r="B4" s="11">
         <v>55000</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>0.22</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="19">
         <v>3575</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>80000</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="19">
         <v>60000</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>0.32</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="19">
         <v>3375</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="3">
+        <v>7</v>
+      </c>
+      <c r="B5" s="11">
         <v>77500</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>0.25</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="19">
         <v>4843.75</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>125000</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="19">
         <v>80000</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>0.36</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="19">
         <v>4233.333333333333</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="E11" s="5"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D22" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -994,159 +3471,129 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="B1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="30.69140625" customWidth="1"/>
-    <col min="2" max="5" width="20.69140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.61328125" customWidth="1"/>
+    <col min="2" max="2" width="19.921875" customWidth="1"/>
+    <col min="3" max="3" width="20.69140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.15234375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="20.69140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
-        <v>15</v>
-      </c>
+    <row r="1" spans="2:7" s="2" customFormat="1" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="B1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+    </row>
+    <row r="3" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="1">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
         <f>Base!D2</f>
         <v>1770.833333333333</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="D6" s="1">
         <f>Base!H2</f>
         <v>1687.5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="1">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
         <f>Base!D3</f>
         <v>2562.5</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="D7" s="1">
         <f>Base!H3</f>
         <v>2531.25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="1">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
         <f>Base!D4</f>
         <v>3575</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="D8" s="1">
         <f>Base!H4</f>
         <v>3375</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="1">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1">
         <f>Base!D5</f>
         <v>4843.75</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="D9" s="1">
         <f>Base!H5</f>
         <v>4233.333333333333</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>21</v>
+    <row r="11" spans="2:7" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="B11" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C842AF8-64EF-4A17-96E4-0D6E84999AD2}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1155,40 +3602,45 @@
     <col min="2" max="2" width="20.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A1" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+        <v>17</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="8">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="10">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="9">
+        <v>21</v>
+      </c>
+      <c r="B6" s="7">
         <f>IF(B3="España (Península)", 18,
                        IF(B3="España (Canarias)", 16,
                        IF(B3="México", 21,
@@ -1198,18 +3650,21 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="8">
-        <f>B5*(1-B8/100)/12</f>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="6">
+        <f>B4*(1-B6/100)/12</f>
         <v>2100</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{6AF7C426-24EB-438E-829D-86EEF9670B6B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{6AF7C426-24EB-438E-829D-86EEF9670B6B}">
       <formula1>"Junior,SemiSenior,Senior,Especialista IA / Lead"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Selecciona un país o región" sqref="B3" xr:uid="{AE8D3E29-09EA-449F-BC0B-2237C1837B90}">
@@ -1217,5 +3672,8 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>